--- a/mySyllabus.xlsx
+++ b/mySyllabus.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="460" windowWidth="24040" windowHeight="14820" tabRatio="500"/>
+    <workbookView minimized="1" xWindow="7040" yWindow="460" windowWidth="24040" windowHeight="14820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Syllabus" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="104">
   <si>
     <t>Week</t>
   </si>
@@ -111,9 +111,6 @@
     <t>MYNN notebook;  HLML</t>
   </si>
   <si>
-    <t>MLwR; HLML</t>
-  </si>
-  <si>
     <t>IDLR</t>
   </si>
   <si>
@@ -138,9 +135,6 @@
     <t>W5</t>
   </si>
   <si>
-    <t>HLML; Hinton W5</t>
-  </si>
-  <si>
     <t>W6</t>
   </si>
   <si>
@@ -340,6 +334,12 @@
   </si>
   <si>
     <t>W3</t>
+  </si>
+  <si>
+    <t>https://towardsdatascience.com/convolutional-neural-networks-for-all-part-i-cdd282ee7947</t>
+  </si>
+  <si>
+    <t>MLwR; HLML; Hinton W5</t>
   </si>
 </sst>
 </file>
@@ -728,10 +728,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -763,22 +763,22 @@
         <v>5</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>90</v>
-      </c>
       <c r="J1" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>3</v>
@@ -805,16 +805,16 @@
         <v>6</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K2" s="8" t="s">
         <v>26</v>
@@ -837,16 +837,16 @@
         <v>6</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>102</v>
+        <v>61</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>100</v>
       </c>
       <c r="K3" s="8" t="s">
         <v>24</v>
@@ -865,17 +865,17 @@
         <f t="shared" si="0"/>
         <v>43149</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>94</v>
+      <c r="F4" s="8" t="s">
+        <v>92</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -892,16 +892,16 @@
         <v>43156</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>12</v>
@@ -927,19 +927,19 @@
         <v>6</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -959,16 +959,16 @@
         <v>6</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>24</v>
@@ -994,19 +994,19 @@
         <v>6</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="J8" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>24</v>
@@ -1017,7 +1017,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B9" s="2">
         <f t="shared" si="2"/>
@@ -1033,7 +1033,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="K9" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -1052,19 +1052,19 @@
         <v>6</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="J10" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>24</v>
@@ -1087,16 +1087,16 @@
         <v>43198</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>24</v>
@@ -1119,16 +1119,16 @@
         <v>6</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>24</v>
@@ -1154,16 +1154,16 @@
         <v>6</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>15</v>
@@ -1186,10 +1186,10 @@
         <v>6</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>16</v>
@@ -1212,10 +1212,10 @@
         <v>6</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>17</v>
@@ -1238,10 +1238,10 @@
         <v>6</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>10</v>
@@ -1261,7 +1261,7 @@
         <v>43240</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
@@ -1285,7 +1285,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="J21" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K21" s="3"/>
     </row>
@@ -1298,10 +1298,10 @@
       </c>
       <c r="F22" s="2"/>
       <c r="J22" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
@@ -1312,10 +1312,10 @@
         <v>20</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
@@ -1326,10 +1326,10 @@
         <v>23</v>
       </c>
       <c r="J24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K24" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
@@ -1342,25 +1342,30 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1383,18 +1388,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/mySyllabus.xlsx
+++ b/mySyllabus.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="7040" yWindow="460" windowWidth="24040" windowHeight="14820" tabRatio="500"/>
+    <workbookView xWindow="640" yWindow="460" windowWidth="24040" windowHeight="14820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Syllabus" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="118">
   <si>
     <t>Week</t>
   </si>
@@ -126,9 +126,6 @@
     <t>W1</t>
   </si>
   <si>
-    <t>HLML; Hinton W3</t>
-  </si>
-  <si>
     <t>W4</t>
   </si>
   <si>
@@ -147,9 +144,6 @@
     <t>W9</t>
   </si>
   <si>
-    <t>Hinton W9</t>
-  </si>
-  <si>
     <t>W10</t>
   </si>
   <si>
@@ -162,9 +156,6 @@
     <t>W13</t>
   </si>
   <si>
-    <t>IDLR; Hinton W13</t>
-  </si>
-  <si>
     <t>W14, W15</t>
   </si>
   <si>
@@ -303,9 +294,6 @@
     <t>DL 1.1-4.5</t>
   </si>
   <si>
-    <t>Training Data</t>
-  </si>
-  <si>
     <t>DL 6.1-6.6</t>
   </si>
   <si>
@@ -339,7 +327,61 @@
     <t>https://towardsdatascience.com/convolutional-neural-networks-for-all-part-i-cdd282ee7947</t>
   </si>
   <si>
-    <t>MLwR; HLML; Hinton W5</t>
+    <t>MLwR; HLML</t>
+  </si>
+  <si>
+    <t>http://www.hexahedria.com/2015/08/03/composing-music-with-recurrent-neural-networks/</t>
+  </si>
+  <si>
+    <t>MSCOCO</t>
+  </si>
+  <si>
+    <t>Video</t>
+  </si>
+  <si>
+    <t>https://research.google.com/youtube8m/index.html</t>
+  </si>
+  <si>
+    <t>YouTube8m</t>
+  </si>
+  <si>
+    <t>http://cocodataset.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Problem options: </t>
+  </si>
+  <si>
+    <t>https://github.com/NirantK/awesome-project-ideas</t>
+  </si>
+  <si>
+    <t>Dataset</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>http://www.image-net.org/</t>
+  </si>
+  <si>
+    <t>https://deeplearning4j.org/opendata</t>
+  </si>
+  <si>
+    <t>Music/</t>
+  </si>
+  <si>
+    <t>Folk tunes</t>
+  </si>
+  <si>
+    <t>http://abc.sourceforge.net/NMD/</t>
+  </si>
+  <si>
+    <t>I would look at the Final projects from Stanford’s CS229 Machine learning course for inspiration.'</t>
+  </si>
+  <si>
+    <t>https://towardsdatascience.com/deep-learning-with-python-703e26853820</t>
   </si>
 </sst>
 </file>
@@ -436,7 +478,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -447,6 +489,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -728,10 +771,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -763,19 +806,19 @@
         <v>5</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>88</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>29</v>
@@ -805,13 +848,13 @@
         <v>6</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>31</v>
@@ -837,16 +880,16 @@
         <v>6</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="K3" s="8" t="s">
         <v>24</v>
@@ -866,16 +909,16 @@
         <v>43149</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>32</v>
+        <v>88</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -891,14 +934,14 @@
         <f t="shared" si="0"/>
         <v>43156</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>94</v>
+      <c r="F5" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>24</v>
@@ -927,19 +970,19 @@
         <v>6</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -959,16 +1002,16 @@
         <v>6</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>24</v>
@@ -994,19 +1037,19 @@
         <v>6</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>24</v>
@@ -1017,7 +1060,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B9" s="2">
         <f t="shared" si="2"/>
@@ -1032,9 +1075,6 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="K9" s="1" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
@@ -1052,19 +1092,19 @@
         <v>6</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>24</v>
@@ -1087,16 +1127,16 @@
         <v>43198</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>24</v>
@@ -1119,16 +1159,16 @@
         <v>6</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>24</v>
@@ -1154,16 +1194,16 @@
         <v>6</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>15</v>
@@ -1186,10 +1226,10 @@
         <v>6</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>16</v>
@@ -1212,10 +1252,10 @@
         <v>6</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>17</v>
@@ -1238,10 +1278,10 @@
         <v>6</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>10</v>
@@ -1261,7 +1301,7 @@
         <v>43240</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
@@ -1284,10 +1324,15 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="J21" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="K21" s="3"/>
+      <c r="K21" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
@@ -1297,11 +1342,11 @@
         <v>21</v>
       </c>
       <c r="F22" s="2"/>
-      <c r="J22" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="K22" s="1" t="s">
         <v>48</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
@@ -1311,11 +1356,14 @@
       <c r="B23" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="K23" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
@@ -1325,11 +1373,11 @@
       <c r="B24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J24" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="K24" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
@@ -1339,6 +1387,15 @@
       <c r="B25" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="K25" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
@@ -1347,6 +1404,26 @@
       <c r="B26" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="K26" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K27" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
@@ -1355,17 +1432,40 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>53</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="L31" s="3"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K34" s="10" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1388,18 +1488,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/mySyllabus.xlsx
+++ b/mySyllabus.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="123">
   <si>
     <t>Week</t>
   </si>
@@ -382,6 +382,21 @@
   </si>
   <si>
     <t>https://towardsdatascience.com/deep-learning-with-python-703e26853820</t>
+  </si>
+  <si>
+    <t>https://papers.nips.cc/paper/4824-imagenet-classification-with-deep-convolutional-neural-networks.pdf</t>
+  </si>
+  <si>
+    <t>https://blog.acolyer.org/2016/04/20/imagenet-classification-with-deep-convolutional-neural-networks/</t>
+  </si>
+  <si>
+    <t>https://medium.com/google-cloud/keras-inception-v3-on-google-compute-engine-a54918b0058</t>
+  </si>
+  <si>
+    <t>https://cloud.google.com/dataflow/</t>
+  </si>
+  <si>
+    <t>https://cloud.google.com/tpu/docs/tutorials/resnet#full-imagenet</t>
   </si>
 </sst>
 </file>
@@ -445,12 +460,18 @@
       <name val="Calibri (Body)"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -478,7 +499,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -490,6 +511,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -771,10 +793,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1466,6 +1488,31 @@
       </c>
       <c r="K34" s="10" t="s">
         <v>116</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" s="11" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/mySyllabus.xlsx
+++ b/mySyllabus.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="460" windowWidth="24040" windowHeight="14820" tabRatio="500"/>
+    <workbookView xWindow="2800" yWindow="500" windowWidth="24040" windowHeight="14820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Syllabus" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="121">
   <si>
     <t>Week</t>
   </si>
@@ -327,9 +327,6 @@
     <t>https://towardsdatascience.com/convolutional-neural-networks-for-all-part-i-cdd282ee7947</t>
   </si>
   <si>
-    <t>MLwR; HLML</t>
-  </si>
-  <si>
     <t>http://www.hexahedria.com/2015/08/03/composing-music-with-recurrent-neural-networks/</t>
   </si>
   <si>
@@ -348,12 +345,6 @@
     <t>http://cocodataset.org/</t>
   </si>
   <si>
-    <t xml:space="preserve">Problem options: </t>
-  </si>
-  <si>
-    <t>https://github.com/NirantK/awesome-project-ideas</t>
-  </si>
-  <si>
     <t>Dataset</t>
   </si>
   <si>
@@ -366,21 +357,12 @@
     <t>http://www.image-net.org/</t>
   </si>
   <si>
-    <t>https://deeplearning4j.org/opendata</t>
-  </si>
-  <si>
-    <t>Music/</t>
-  </si>
-  <si>
     <t>Folk tunes</t>
   </si>
   <si>
     <t>http://abc.sourceforge.net/NMD/</t>
   </si>
   <si>
-    <t>I would look at the Final projects from Stanford’s CS229 Machine learning course for inspiration.'</t>
-  </si>
-  <si>
     <t>https://towardsdatascience.com/deep-learning-with-python-703e26853820</t>
   </si>
   <si>
@@ -397,6 +379,18 @@
   </si>
   <si>
     <t>https://cloud.google.com/tpu/docs/tutorials/resnet#full-imagenet</t>
+  </si>
+  <si>
+    <t>HLML; MLwR</t>
+  </si>
+  <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t>HLML; Hinton</t>
+  </si>
+  <si>
+    <t>Hinton</t>
   </si>
 </sst>
 </file>
@@ -499,7 +493,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -512,6 +506,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -796,7 +791,7 @@
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -959,14 +954,14 @@
       <c r="F5" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>24</v>
+      <c r="K5" s="8" t="s">
+        <v>119</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>12</v>
@@ -994,9 +989,6 @@
       <c r="F6" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="H6" s="1" t="s">
         <v>63</v>
       </c>
@@ -1004,7 +996,7 @@
         <v>33</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -1062,7 +1054,7 @@
         <v>93</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>68</v>
@@ -1074,7 +1066,7 @@
         <v>35</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>24</v>
+        <v>117</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>14</v>
@@ -1094,7 +1086,6 @@
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="2"/>
-      <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
@@ -1115,9 +1106,6 @@
       </c>
       <c r="F10" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>72</v>
@@ -1151,6 +1139,9 @@
       <c r="F11" s="1" t="s">
         <v>64</v>
       </c>
+      <c r="G11" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="H11" s="1" t="s">
         <v>75</v>
       </c>
@@ -1161,7 +1152,7 @@
         <v>37</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>24</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -1183,6 +1174,7 @@
       <c r="F12" s="1" t="s">
         <v>94</v>
       </c>
+      <c r="G12" s="2"/>
       <c r="H12" s="1" t="s">
         <v>78</v>
       </c>
@@ -1218,6 +1210,9 @@
       <c r="F13" s="1" t="s">
         <v>95</v>
       </c>
+      <c r="G13" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="I13" s="1" t="s">
         <v>80</v>
       </c>
@@ -1279,6 +1274,9 @@
       <c r="J15" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="K15" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="L15" s="1" t="s">
         <v>17</v>
       </c>
@@ -1305,6 +1303,9 @@
       <c r="J16" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="K16" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="M16" s="1" t="s">
         <v>10</v>
       </c>
@@ -1347,13 +1348,13 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="K21" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
@@ -1385,7 +1386,7 @@
         <v>45</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
@@ -1410,13 +1411,13 @@
         <v>25</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>45</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
@@ -1427,24 +1428,24 @@
         <v>28</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L26" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M26" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="K27" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
@@ -1461,58 +1462,50 @@
       <c r="A31" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K31" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="L31" s="3"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="K32" s="1" t="s">
-        <v>107</v>
-      </c>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="K34" s="10" t="s">
-        <v>116</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="K34" s="10"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/mySyllabus.xlsx
+++ b/mySyllabus.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2800" yWindow="500" windowWidth="24040" windowHeight="14820" tabRatio="500"/>
+    <workbookView xWindow="660" yWindow="500" windowWidth="24040" windowHeight="14820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Syllabus" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="122">
   <si>
     <t>Week</t>
   </si>
@@ -391,6 +391,9 @@
   </si>
   <si>
     <t>Hinton</t>
+  </si>
+  <si>
+    <t>https://blog.riseml.com/accelerating-io-bound-deep-learning-e0e3f095fd0</t>
   </si>
 </sst>
 </file>
@@ -788,10 +791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -986,16 +989,16 @@
       <c r="D6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="8" t="s">
         <v>91</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K6" s="8" t="s">
         <v>119</v>
       </c>
     </row>
@@ -1506,6 +1509,11 @@
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
         <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/mySyllabus.xlsx
+++ b/mySyllabus.xlsx
@@ -794,7 +794,7 @@
   <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -992,7 +992,7 @@
       <c r="F6" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="8" t="s">
         <v>63</v>
       </c>
       <c r="J6" s="8" t="s">

--- a/mySyllabus.xlsx
+++ b/mySyllabus.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="660" yWindow="500" windowWidth="24040" windowHeight="14820" tabRatio="500"/>
+    <workbookView xWindow="720" yWindow="1120" windowWidth="24040" windowHeight="14820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Syllabus" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="123">
   <si>
     <t>Week</t>
   </si>
@@ -394,6 +394,9 @@
   </si>
   <si>
     <t>https://blog.riseml.com/accelerating-io-bound-deep-learning-e0e3f095fd0</t>
+  </si>
+  <si>
+    <t>http://neuralnetworksanddeeplearning.com/</t>
   </si>
 </sst>
 </file>
@@ -791,10 +794,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M40"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1514,6 +1517,11 @@
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>121</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/mySyllabus.xlsx
+++ b/mySyllabus.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="720" yWindow="1120" windowWidth="24040" windowHeight="14820" tabRatio="500"/>
+    <workbookView xWindow="660" yWindow="1120" windowWidth="24040" windowHeight="14820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Syllabus" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="124">
   <si>
     <t>Week</t>
   </si>
@@ -309,9 +309,6 @@
     <t>DL 9.1-9.11</t>
   </si>
   <si>
-    <t>DL 10.1-10.12</t>
-  </si>
-  <si>
     <t>DL 15.1-15.6</t>
   </si>
   <si>
@@ -397,6 +394,12 @@
   </si>
   <si>
     <t>http://neuralnetworksanddeeplearning.com/</t>
+  </si>
+  <si>
+    <t>https://blog.rstudio.com/2018/02/06/tensorflow-for-r/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* excellent lecture </t>
   </si>
 </sst>
 </file>
@@ -794,10 +797,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M41"/>
+  <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -912,7 +915,7 @@
         <v>58</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K3" s="8" t="s">
         <v>24</v>
@@ -938,7 +941,7 @@
         <v>59</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K4" s="8" t="s">
         <v>24</v>
@@ -967,7 +970,7 @@
         <v>32</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>12</v>
@@ -1002,7 +1005,7 @@
         <v>33</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -1021,7 +1024,7 @@
       <c r="D7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="8" t="s">
         <v>92</v>
       </c>
       <c r="H7" s="1" t="s">
@@ -1057,7 +1060,7 @@
         <v>6</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>62</v>
@@ -1072,7 +1075,7 @@
         <v>35</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>14</v>
@@ -1111,7 +1114,7 @@
         <v>6</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>72</v>
@@ -1143,7 +1146,7 @@
         <v>43198</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>67</v>
@@ -1158,7 +1161,7 @@
         <v>37</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -1214,7 +1217,7 @@
         <v>6</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>71</v>
@@ -1249,7 +1252,7 @@
         <v>6</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>40</v>
@@ -1275,13 +1278,13 @@
         <v>6</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>41</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>17</v>
@@ -1303,14 +1306,11 @@
       <c r="D16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="J16" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>10</v>
@@ -1354,13 +1354,13 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="K21" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="L21" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="M21" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
@@ -1392,7 +1392,7 @@
         <v>45</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
@@ -1417,13 +1417,13 @@
         <v>25</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>45</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
@@ -1434,24 +1434,24 @@
         <v>28</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L26" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M26" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="K27" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="M27" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
@@ -1473,55 +1473,63 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K32" s="12"/>
       <c r="L32" s="12"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K34" s="10"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="11" t="s">
         <v>122</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/mySyllabus.xlsx
+++ b/mySyllabus.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="660" yWindow="1120" windowWidth="24040" windowHeight="14820" tabRatio="500"/>
+    <workbookView xWindow="660" yWindow="1120" windowWidth="24040" windowHeight="14820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Syllabus" sheetId="1" r:id="rId1"/>
     <sheet name="FinalPaperNotes" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="118">
   <si>
     <t>Week</t>
   </si>
@@ -222,9 +222,6 @@
     <t xml:space="preserve"> HLML 9-10</t>
   </si>
   <si>
-    <t>DL 13.1-14.9</t>
-  </si>
-  <si>
     <t xml:space="preserve"> HLML 11</t>
   </si>
   <si>
@@ -240,9 +237,6 @@
     <t xml:space="preserve"> IDLR 3-4</t>
   </si>
   <si>
-    <t>DL 17.1-18.7</t>
-  </si>
-  <si>
     <t xml:space="preserve"> MLwR C12</t>
   </si>
   <si>
@@ -252,18 +246,12 @@
     <t xml:space="preserve"> IDLR 4-5</t>
   </si>
   <si>
-    <t>DL 19.1-19.5</t>
-  </si>
-  <si>
     <t xml:space="preserve"> HLML 15</t>
   </si>
   <si>
     <t xml:space="preserve"> IDLR 6-7</t>
   </si>
   <si>
-    <t>DL 20.1-20.15</t>
-  </si>
-  <si>
     <t xml:space="preserve"> HLML 16</t>
   </si>
   <si>
@@ -307,12 +295,6 @@
   </si>
   <si>
     <t>DL 9.1-9.11</t>
-  </si>
-  <si>
-    <t>DL 15.1-15.6</t>
-  </si>
-  <si>
-    <t>DL 16.1-16.7</t>
   </si>
   <si>
     <t>W2</t>
@@ -405,11 +387,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -529,6 +511,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -796,14 +781,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10:F15"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="4" width="10.83203125" style="2"/>
@@ -818,7 +803,7 @@
     <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="5" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -832,19 +817,19 @@
         <v>5</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>85</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>29</v>
@@ -859,7 +844,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -877,7 +862,7 @@
         <v>55</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>56</v>
@@ -889,7 +874,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <f>A2+1</f>
         <v>2</v>
@@ -909,19 +894,19 @@
         <v>57</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>58</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="K3" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A18" si="1">A3+1</f>
         <v>3</v>
@@ -935,19 +920,19 @@
         <v>43149</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>59</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="K4" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -961,7 +946,7 @@
         <v>43156</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>60</v>
@@ -970,7 +955,7 @@
         <v>32</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>12</v>
@@ -979,7 +964,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -996,7 +981,7 @@
         <v>6</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>63</v>
@@ -1005,10 +990,10 @@
         <v>33</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -1025,25 +1010,26 @@
         <v>6</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="H7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="8" t="s">
         <v>24</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -1059,31 +1045,31 @@
       <c r="D8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>116</v>
+      <c r="K8" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="A9" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B9" s="2">
         <f t="shared" si="2"/>
@@ -1098,7 +1084,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1113,14 +1099,11 @@
       <c r="D10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="H10" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>36</v>
@@ -1132,7 +1115,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -1145,26 +1128,23 @@
         <f t="shared" si="0"/>
         <v>43198</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="G11" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>37</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -1180,15 +1160,12 @@
       <c r="D12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="G12" s="2"/>
       <c r="H12" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>38</v>
@@ -1200,7 +1177,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -1216,14 +1193,11 @@
       <c r="D13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="G13" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>39</v>
@@ -1235,7 +1209,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -1251,9 +1225,6 @@
       <c r="D14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="J14" s="1" t="s">
         <v>40</v>
       </c>
@@ -1261,7 +1232,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -1277,20 +1248,17 @@
       <c r="D15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="J15" s="1" t="s">
         <v>41</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -1310,13 +1278,13 @@
         <v>42</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -1333,7 +1301,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -1352,18 +1320,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13">
       <c r="K21" s="3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
@@ -1378,7 +1346,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
         <v>19</v>
       </c>
@@ -1392,10 +1360,10 @@
         <v>45</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -1409,7 +1377,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -1417,16 +1385,16 @@
         <v>25</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>45</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
@@ -1434,102 +1402,102 @@
         <v>28</v>
       </c>
       <c r="K26" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="K27" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="L26" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="K27" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="L27" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
         <v>50</v>
       </c>
       <c r="K31" s="12"/>
       <c r="L31" s="12"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="K32" s="12"/>
       <c r="L32" s="12"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="K34" s="10"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="11" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="11" t="s">
+    <row r="41" spans="1:11">
+      <c r="A41" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11">
       <c r="A42" s="11" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1538,19 +1506,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="53.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>51</v>
       </c>
@@ -1558,7 +1526,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>53</v>
       </c>

--- a/mySyllabus.xlsx
+++ b/mySyllabus.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="125">
   <si>
     <t>Week</t>
   </si>
@@ -382,6 +382,27 @@
   </si>
   <si>
     <t xml:space="preserve">* excellent lecture </t>
+  </si>
+  <si>
+    <t>Reading DLR</t>
+  </si>
+  <si>
+    <t>DLR 1-2</t>
+  </si>
+  <si>
+    <t>DLR</t>
+  </si>
+  <si>
+    <t>Deep Learning with R; Chollet, Allaire</t>
+  </si>
+  <si>
+    <t>DLR 3-4</t>
+  </si>
+  <si>
+    <t>DLR 5, 7</t>
+  </si>
+  <si>
+    <t>DLR 8-9</t>
   </si>
 </sst>
 </file>
@@ -782,10 +803,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M42"/>
+  <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -794,16 +815,17 @@
     <col min="2" max="4" width="10.83203125" style="2"/>
     <col min="5" max="5" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" style="1" customWidth="1"/>
-    <col min="11" max="11" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="1"/>
+    <col min="7" max="7" width="12.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" style="1" customWidth="1"/>
+    <col min="12" max="12" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="5" customFormat="1">
+    <row r="1" spans="1:14" s="5" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -823,28 +845,31 @@
         <v>78</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -864,17 +889,18 @@
       <c r="F2" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="G2" s="8"/>
+      <c r="I2" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <f>A2+1</f>
         <v>2</v>
@@ -896,17 +922,18 @@
       <c r="F3" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="G3" s="8"/>
+      <c r="I3" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="K3" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="L3" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A18" si="1">A3+1</f>
         <v>3</v>
@@ -922,17 +949,18 @@
       <c r="F4" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="G4" s="8"/>
+      <c r="I4" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="K4" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="L4" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -948,23 +976,24 @@
       <c r="F5" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="G5" s="8"/>
+      <c r="I5" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="K5" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="L5" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -983,17 +1012,18 @@
       <c r="F6" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="G6" s="8"/>
+      <c r="I6" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="K6" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="L6" s="8" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -1013,23 +1043,24 @@
         <v>88</v>
       </c>
       <c r="G7" s="8"/>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="8"/>
+      <c r="I7" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="J7" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="K7" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="L7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -1049,25 +1080,28 @@
         <v>61</v>
       </c>
       <c r="G8" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="H8" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="I8" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="J8" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="K8" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="L8" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:14">
       <c r="A9" s="4" t="s">
         <v>82</v>
       </c>
@@ -1081,10 +1115,10 @@
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="2"/>
-      <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1099,23 +1133,26 @@
       <c r="D10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="G10" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="N10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -1129,22 +1166,25 @@
         <v>43198</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="K11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="L11" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -1160,24 +1200,27 @@
       <c r="D12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="1" t="s">
+      <c r="G12" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="L12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="M12" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -1193,23 +1236,23 @@
       <c r="D13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="K13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="L13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="M13" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:14">
       <c r="A14" s="1">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -1225,14 +1268,14 @@
       <c r="D14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="K14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="M14" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:14">
       <c r="A15" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -1248,17 +1291,17 @@
       <c r="D15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="K15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="L15" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="M15" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:14">
       <c r="A16" s="1">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -1274,17 +1317,17 @@
       <c r="D16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="K16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="L16" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="N16" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -1297,11 +1340,11 @@
         <f t="shared" si="0"/>
         <v>43240</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="K17" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -1316,22 +1359,22 @@
       <c r="D18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="N18" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
-      <c r="K21" s="3" t="s">
+    <row r="21" spans="1:14">
+      <c r="L21" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="M21" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="N21" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:14">
       <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
@@ -1339,164 +1382,173 @@
         <v>21</v>
       </c>
       <c r="F22" s="2"/>
-      <c r="K22" s="1" t="s">
+      <c r="G22" s="2"/>
+      <c r="L22" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="L22" s="1" t="s">
+      <c r="M22" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:14">
       <c r="A23" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="L23" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="L23" s="1" t="s">
+      <c r="M23" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M23" s="1" t="s">
+      <c r="N23" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:14">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="L24" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L24" s="1" t="s">
+      <c r="M24" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:14">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="L25" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="L25" s="1" t="s">
+      <c r="M25" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M25" s="1" t="s">
+      <c r="N25" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:14">
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K26" s="1" t="s">
+      <c r="L26" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="L26" s="1" t="s">
+      <c r="M26" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="M26" s="1" t="s">
+      <c r="N26" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
-      <c r="K27" s="1" t="s">
+    <row r="27" spans="1:14">
+      <c r="A27" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="L28" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="L27" s="1" t="s">
+      <c r="M28" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="M27" s="1" t="s">
+      <c r="N28" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="1" t="s">
+    <row r="29" spans="1:14">
+      <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="1" t="s">
+    <row r="31" spans="1:14">
+      <c r="A31" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="1" t="s">
+    <row r="32" spans="1:14">
+      <c r="A32" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="1" t="s">
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="1" t="s">
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="1" t="s">
+    <row r="35" spans="1:13">
+      <c r="A35" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="K34" s="10"/>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="1" t="s">
+      <c r="L35" s="10"/>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="1" t="s">
+    <row r="37" spans="1:13">
+      <c r="A37" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="11" t="s">
+    <row r="38" spans="1:13">
+      <c r="A38" s="11" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="1" t="s">
+    <row r="39" spans="1:13">
+      <c r="A39" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="11" t="s">
+    <row r="40" spans="1:13">
+      <c r="A40" s="11" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="1" t="s">
+    <row r="41" spans="1:13">
+      <c r="A41" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="1" t="s">
+    <row r="42" spans="1:13">
+      <c r="A42" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="11" t="s">
+    <row r="43" spans="1:13">
+      <c r="A43" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B43" s="2" t="s">
         <v>117</v>
       </c>
     </row>

--- a/mySyllabus.xlsx
+++ b/mySyllabus.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="660" yWindow="1120" windowWidth="24040" windowHeight="14820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="660" yWindow="460" windowWidth="24040" windowHeight="14820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Syllabus" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="123">
   <si>
     <t>Week</t>
   </si>
@@ -240,24 +240,6 @@
     <t xml:space="preserve"> MLwR C12</t>
   </si>
   <si>
-    <t xml:space="preserve"> HLML 14</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> IDLR 4-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> HLML 15</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> IDLR 6-7</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> HLML 16</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> IDLR 8-9</t>
-  </si>
-  <si>
     <t>IDLR 10-12</t>
   </si>
   <si>
@@ -396,13 +378,25 @@
     <t>Deep Learning with R; Chollet, Allaire</t>
   </si>
   <si>
-    <t>DLR 3-4</t>
-  </si>
-  <si>
-    <t>DLR 5, 7</t>
-  </si>
-  <si>
     <t>DLR 8-9</t>
+  </si>
+  <si>
+    <t>DLR; Hinton</t>
+  </si>
+  <si>
+    <t>DLR 3-5</t>
+  </si>
+  <si>
+    <t>DLR 6-7</t>
+  </si>
+  <si>
+    <t>IDLR 4-5</t>
+  </si>
+  <si>
+    <t>IDLR 6-7</t>
+  </si>
+  <si>
+    <t>IDLR 8-9</t>
   </si>
 </sst>
 </file>
@@ -806,7 +800,7 @@
   <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -839,22 +833,22 @@
         <v>5</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="K1" s="6" t="s">
         <v>29</v>
@@ -887,7 +881,7 @@
         <v>55</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G2" s="8"/>
       <c r="I2" s="8" t="s">
@@ -920,14 +914,14 @@
         <v>57</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G3" s="8"/>
       <c r="I3" s="9" t="s">
         <v>58</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="L3" s="8" t="s">
         <v>24</v>
@@ -947,14 +941,14 @@
         <v>43149</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G4" s="8"/>
       <c r="I4" s="8" t="s">
         <v>59</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="L4" s="8" t="s">
         <v>24</v>
@@ -974,7 +968,7 @@
         <v>43156</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G5" s="8"/>
       <c r="I5" s="8" t="s">
@@ -984,7 +978,7 @@
         <v>32</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>12</v>
@@ -1010,7 +1004,7 @@
         <v>6</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G6" s="8"/>
       <c r="I6" s="8" t="s">
@@ -1020,7 +1014,7 @@
         <v>33</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1040,7 +1034,7 @@
         <v>6</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
@@ -1080,7 +1074,7 @@
         <v>61</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H8" s="8" t="s">
         <v>62</v>
@@ -1095,7 +1089,7 @@
         <v>35</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>14</v>
@@ -1103,7 +1097,7 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B9" s="2">
         <f t="shared" si="2"/>
@@ -1133,20 +1127,17 @@
       <c r="D10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K10" s="1" t="s">
+      <c r="G10" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="K10" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="L10" s="1" t="s">
-        <v>24</v>
+      <c r="L10" s="8" t="s">
+        <v>114</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>8</v>
@@ -1166,22 +1157,19 @@
         <v>43198</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="J11" s="1" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1201,20 +1189,17 @@
         <v>6</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H12" s="2"/>
-      <c r="I12" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="J12" s="1" t="s">
-        <v>75</v>
+        <v>122</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>38</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>24</v>
+        <v>114</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>14</v>
@@ -1240,7 +1225,7 @@
         <v>69</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>39</v>
@@ -1295,7 +1280,7 @@
         <v>41</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>17</v>
@@ -1321,7 +1306,7 @@
         <v>42</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>10</v>
@@ -1365,13 +1350,13 @@
     </row>
     <row r="21" spans="1:14">
       <c r="L21" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1404,7 +1389,7 @@
         <v>45</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1429,13 +1414,13 @@
         <v>25</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>45</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -1446,32 +1431,32 @@
         <v>28</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="L28" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1493,67 +1478,68 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="L33" s="12"/>
       <c r="M33" s="12"/>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="L35" s="10"/>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="11" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="11" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 

--- a/mySyllabus.xlsx
+++ b/mySyllabus.xlsx
@@ -800,7 +800,7 @@
   <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1162,7 +1162,7 @@
       <c r="H11" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J11" s="8" t="s">
         <v>121</v>
       </c>
       <c r="K11" s="2" t="s">

--- a/mySyllabus.xlsx
+++ b/mySyllabus.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="660" yWindow="460" windowWidth="24040" windowHeight="14820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-780" yWindow="460" windowWidth="24040" windowHeight="14820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Syllabus" sheetId="1" r:id="rId1"/>
@@ -499,7 +499,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -513,6 +513,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -800,7 +802,7 @@
   <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1159,7 +1161,7 @@
       <c r="G11" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="14" t="s">
         <v>66</v>
       </c>
       <c r="J11" s="8" t="s">
@@ -1349,6 +1351,9 @@
       </c>
     </row>
     <row r="21" spans="1:14">
+      <c r="H21" s="13">
+        <v>13000000000</v>
+      </c>
       <c r="L21" s="3" t="s">
         <v>92</v>
       </c>

--- a/mySyllabus.xlsx
+++ b/mySyllabus.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-780" yWindow="460" windowWidth="24040" windowHeight="14820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24040" windowHeight="14820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Syllabus" sheetId="1" r:id="rId1"/>
@@ -499,7 +499,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -515,6 +515,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -802,7 +803,7 @@
   <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1158,7 +1159,7 @@
         <f t="shared" si="0"/>
         <v>43198</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="8" t="s">
         <v>119</v>
       </c>
       <c r="H11" s="14" t="s">
@@ -1167,10 +1168,10 @@
       <c r="J11" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="L11" s="8" t="s">
         <v>117</v>
       </c>
     </row>

--- a/mySyllabus.xlsx
+++ b/mySyllabus.xlsx
@@ -13,7 +13,6 @@
   </bookViews>
   <sheets>
     <sheet name="Syllabus" sheetId="1" r:id="rId1"/>
-    <sheet name="FinalPaperNotes" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="119">
   <si>
     <t>Week</t>
   </si>
@@ -181,18 +180,6 @@
   </si>
   <si>
     <t>https://towardsdatascience.com/the-8-neural-network-architectures-machine-learning-researchers-need-to-learn-11a0c96d6073</t>
-  </si>
-  <si>
-    <t>Subject</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Why do we need Deep Learning?   What challenges is it good for </t>
-  </si>
-  <si>
-    <t>DL 5.11</t>
   </si>
   <si>
     <t>MYNN P1</t>
@@ -803,7 +790,7 @@
   <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -836,22 +823,22 @@
         <v>5</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>75</v>
       </c>
       <c r="K1" s="6" t="s">
         <v>29</v>
@@ -881,14 +868,14 @@
         <v>6</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G2" s="8"/>
       <c r="I2" s="8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K2" s="8" t="s">
         <v>31</v>
@@ -914,17 +901,17 @@
         <v>6</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G3" s="8"/>
       <c r="I3" s="9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="L3" s="8" t="s">
         <v>24</v>
@@ -944,14 +931,14 @@
         <v>43149</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G4" s="8"/>
       <c r="I4" s="8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="L4" s="8" t="s">
         <v>24</v>
@@ -971,17 +958,17 @@
         <v>43156</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G5" s="8"/>
       <c r="I5" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K5" s="8" t="s">
         <v>32</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>12</v>
@@ -1007,17 +994,17 @@
         <v>6</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G6" s="8"/>
       <c r="I6" s="8" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K6" s="8" t="s">
         <v>33</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1037,15 +1024,15 @@
         <v>6</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="K7" s="8" t="s">
         <v>34</v>
@@ -1074,25 +1061,25 @@
         <v>6</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K8" s="8" t="s">
         <v>35</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>14</v>
@@ -1100,7 +1087,7 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B9" s="2">
         <f t="shared" si="2"/>
@@ -1131,16 +1118,16 @@
         <v>6</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K10" s="8" t="s">
         <v>36</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>8</v>
@@ -1160,19 +1147,19 @@
         <v>43198</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="K11" s="15" t="s">
         <v>37</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1191,18 +1178,19 @@
       <c r="D12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H12" s="2"/>
-      <c r="J12" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="K12" s="1" t="s">
+      <c r="G12" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="K12" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="L12" s="1" t="s">
-        <v>114</v>
+      <c r="L12" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>14</v>
@@ -1225,10 +1213,10 @@
         <v>6</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>39</v>
@@ -1283,7 +1271,7 @@
         <v>41</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>17</v>
@@ -1309,7 +1297,7 @@
         <v>42</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>10</v>
@@ -1352,17 +1340,15 @@
       </c>
     </row>
     <row r="21" spans="1:14">
-      <c r="H21" s="13">
-        <v>13000000000</v>
-      </c>
+      <c r="H21" s="13"/>
       <c r="L21" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1395,7 +1381,7 @@
         <v>45</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1420,13 +1406,13 @@
         <v>25</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>45</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -1437,32 +1423,32 @@
         <v>28</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="L28" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1484,101 +1470,67 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="L33" s="12"/>
       <c r="M33" s="12"/>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L35" s="10"/>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="11" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="11" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="11" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="53.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/mySyllabus.xlsx
+++ b/mySyllabus.xlsx
@@ -790,7 +790,7 @@
   <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1212,16 +1212,17 @@
       <c r="D13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="I13" s="8"/>
+      <c r="J13" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="K13" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="L13" s="8" t="s">
         <v>27</v>
       </c>
       <c r="M13" s="1" t="s">

--- a/mySyllabus.xlsx
+++ b/mySyllabus.xlsx
@@ -486,7 +486,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -503,6 +503,9 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -790,7 +793,7 @@
   <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1245,7 +1248,7 @@
       <c r="D14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="K14" s="16" t="s">
         <v>40</v>
       </c>
       <c r="M14" s="1" t="s">
